--- a/Code/Results/Cases/Case_1_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5793654039437683</v>
+        <v>0.2159311196965064</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0416230622964413</v>
+        <v>0.1058422808887993</v>
       </c>
       <c r="E2">
-        <v>0.09120946875002289</v>
+        <v>0.13028179933346</v>
       </c>
       <c r="F2">
-        <v>4.850323898674958</v>
+        <v>2.878478165862106</v>
       </c>
       <c r="G2">
-        <v>5.024754028769962</v>
+        <v>2.368769996223534</v>
       </c>
       <c r="H2">
-        <v>2.47843721717652</v>
+        <v>1.696868061313182</v>
       </c>
       <c r="I2">
-        <v>0.4951129138725179</v>
+        <v>0.3757315010511491</v>
       </c>
       <c r="J2">
-        <v>0.2834536328319359</v>
+        <v>0.2151472402880472</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.037635430282819</v>
+        <v>1.538965158848526</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5052132088301562</v>
+        <v>0.1913949238938244</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04051448239149202</v>
+        <v>0.1057099897463161</v>
       </c>
       <c r="E3">
-        <v>0.08235840762002411</v>
+        <v>0.129376248143025</v>
       </c>
       <c r="F3">
-        <v>4.184349719911324</v>
+        <v>2.750918434283136</v>
       </c>
       <c r="G3">
-        <v>4.307863690085753</v>
+        <v>2.222640816841505</v>
       </c>
       <c r="H3">
-        <v>2.147840287561962</v>
+        <v>1.636692919714051</v>
       </c>
       <c r="I3">
-        <v>0.4584487682843417</v>
+        <v>0.3656238581545637</v>
       </c>
       <c r="J3">
-        <v>0.2465701843890287</v>
+        <v>0.208773148833032</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.737299696658567</v>
+        <v>1.440536212657179</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4595565776571675</v>
+        <v>0.1762869034274956</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03987585271801564</v>
+        <v>0.1056316089112226</v>
       </c>
       <c r="E4">
-        <v>0.07719071603106897</v>
+        <v>0.1288919000434596</v>
       </c>
       <c r="F4">
-        <v>3.791403568693568</v>
+        <v>2.674709327376632</v>
       </c>
       <c r="G4">
-        <v>3.884242782924701</v>
+        <v>2.13468666062019</v>
       </c>
       <c r="H4">
-        <v>1.953080656404836</v>
+        <v>1.600961959854857</v>
       </c>
       <c r="I4">
-        <v>0.4362154386401045</v>
+        <v>0.3596127975951617</v>
       </c>
       <c r="J4">
-        <v>0.2248672674740959</v>
+        <v>0.205012059613054</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.5530864410552</v>
+        <v>1.380350891855841</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4409186727191212</v>
+        <v>0.170120147310584</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03962423066538889</v>
+        <v>0.1056003683078792</v>
       </c>
       <c r="E5">
-        <v>0.07514308405043479</v>
+        <v>0.1287124574646867</v>
       </c>
       <c r="F5">
-        <v>3.63465179650521</v>
+        <v>2.64417696227224</v>
       </c>
       <c r="G5">
-        <v>3.715094691874157</v>
+        <v>2.099280920985308</v>
       </c>
       <c r="H5">
-        <v>1.875460670430925</v>
+        <v>1.586703403558658</v>
       </c>
       <c r="I5">
-        <v>0.4272251559504312</v>
+        <v>0.3572128864356259</v>
       </c>
       <c r="J5">
-        <v>0.216224135480374</v>
+        <v>0.2035173224339673</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.478069448651979</v>
+        <v>1.3558914054328</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4378218885599239</v>
+        <v>0.1690955695415823</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03958291947764714</v>
+        <v>0.1055952226743999</v>
       </c>
       <c r="E6">
-        <v>0.07480635882001607</v>
+        <v>0.128683741779934</v>
       </c>
       <c r="F6">
-        <v>3.608810373370773</v>
+        <v>2.639138474748648</v>
       </c>
       <c r="G6">
-        <v>3.687199986104361</v>
+        <v>2.093427924020915</v>
       </c>
       <c r="H6">
-        <v>1.862668850673401</v>
+        <v>1.584353915396832</v>
       </c>
       <c r="I6">
-        <v>0.4257365520943779</v>
+        <v>0.3568173988915788</v>
       </c>
       <c r="J6">
-        <v>0.2148001275454376</v>
+        <v>0.2032714010193857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.465616123913208</v>
+        <v>1.351834048475013</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4593053524216657</v>
+        <v>0.1762037765289932</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03987242665631019</v>
+        <v>0.1056311847747633</v>
       </c>
       <c r="E7">
-        <v>0.07716287591499338</v>
+        <v>0.1288894075201767</v>
       </c>
       <c r="F7">
-        <v>3.789276660458171</v>
+        <v>2.674295448035082</v>
       </c>
       <c r="G7">
-        <v>3.881948326126491</v>
+        <v>2.134207411306051</v>
       </c>
       <c r="H7">
-        <v>1.952027168106895</v>
+        <v>1.600768445849013</v>
       </c>
       <c r="I7">
-        <v>0.4360939092483918</v>
+        <v>0.3595802297553021</v>
       </c>
       <c r="J7">
-        <v>0.2247499335128964</v>
+        <v>0.2049917480354679</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.552074523768425</v>
+        <v>1.380020748618364</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5538236746775169</v>
+        <v>0.2074802657996884</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04123080752458286</v>
+        <v>0.1057960665953246</v>
       </c>
       <c r="E8">
-        <v>0.08809645794675447</v>
+        <v>0.129954637554043</v>
       </c>
       <c r="F8">
-        <v>4.616966922952514</v>
+        <v>2.834052162487836</v>
       </c>
       <c r="G8">
-        <v>4.773690368440157</v>
+        <v>2.318011996819791</v>
       </c>
       <c r="H8">
-        <v>2.362529046424356</v>
+        <v>1.675864740954125</v>
       </c>
       <c r="I8">
-        <v>0.4824132112798765</v>
+        <v>0.3722062484302811</v>
       </c>
       <c r="J8">
-        <v>0.2705166943901105</v>
+        <v>0.212917504022812</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.934040714684301</v>
+        <v>1.504976964631908</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7382065226402119</v>
+        <v>0.2684501888316504</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04434027670218654</v>
+        <v>0.1061427228871796</v>
       </c>
       <c r="E9">
-        <v>0.1121412317307779</v>
+        <v>0.1326164825695173</v>
       </c>
       <c r="F9">
-        <v>6.401883690225588</v>
+        <v>3.164481609023056</v>
       </c>
       <c r="G9">
-        <v>6.691324449569777</v>
+        <v>2.692914156986546</v>
       </c>
       <c r="H9">
-        <v>3.250625457680655</v>
+        <v>1.832970800449971</v>
       </c>
       <c r="I9">
-        <v>0.5754683679896999</v>
+        <v>0.3984893586954854</v>
       </c>
       <c r="J9">
-        <v>0.3697532145306468</v>
+        <v>0.2296922894002904</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.684562022066558</v>
+        <v>1.751860150726543</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8731587267201633</v>
+        <v>0.3129948669854343</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04710800698849837</v>
+        <v>0.106412707435446</v>
       </c>
       <c r="E10">
-        <v>0.1322578153812337</v>
+        <v>0.1349279334950673</v>
       </c>
       <c r="F10">
-        <v>7.874751479112433</v>
+        <v>3.418265018242977</v>
       </c>
       <c r="G10">
-        <v>8.270465649153721</v>
+        <v>2.977790851650184</v>
       </c>
       <c r="H10">
-        <v>3.985657395166811</v>
+        <v>1.954674957977772</v>
       </c>
       <c r="I10">
-        <v>0.6452217692004893</v>
+        <v>0.4186982167615696</v>
       </c>
       <c r="J10">
-        <v>0.4520196799240068</v>
+        <v>0.2427996710749767</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.23689462265861</v>
+        <v>1.934196595620278</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9344599874920902</v>
+        <v>0.3331993617556179</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04854366836534929</v>
+        <v>0.106539096441006</v>
       </c>
       <c r="E11">
-        <v>0.1422116209382303</v>
+        <v>0.1360582219594733</v>
       </c>
       <c r="F11">
-        <v>8.599716899595848</v>
+        <v>3.536236937461979</v>
       </c>
       <c r="G11">
-        <v>9.047105349505955</v>
+        <v>3.10957700108986</v>
       </c>
       <c r="H11">
-        <v>4.348053639597254</v>
+        <v>2.011467405619328</v>
       </c>
       <c r="I11">
-        <v>0.677263932932668</v>
+        <v>0.4280806917633271</v>
       </c>
       <c r="J11">
-        <v>0.4926040446384548</v>
+        <v>0.2489397106595561</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.488382904391358</v>
+        <v>2.01731744366225</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9576618370865049</v>
+        <v>0.3408412057246153</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04912162879255177</v>
+        <v>0.1065874905544781</v>
       </c>
       <c r="E12">
-        <v>0.1461277547264324</v>
+        <v>0.1364976832432454</v>
       </c>
       <c r="F12">
-        <v>8.884478073854723</v>
+        <v>3.581282987014646</v>
       </c>
       <c r="G12">
-        <v>9.352083064803765</v>
+        <v>3.15980762891769</v>
       </c>
       <c r="H12">
-        <v>4.490500855715425</v>
+        <v>2.033183669984112</v>
       </c>
       <c r="I12">
-        <v>0.6894428311920251</v>
+        <v>0.4316602591565868</v>
       </c>
       <c r="J12">
-        <v>0.5085591740632651</v>
+        <v>0.2512908683668513</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.583648715502079</v>
+        <v>2.04881500450972</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9526653991390504</v>
+        <v>0.3391958157679369</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04899544965055114</v>
+        <v>0.1065770439752107</v>
       </c>
       <c r="E13">
-        <v>0.1452772041483499</v>
+        <v>0.1364025264829394</v>
       </c>
       <c r="F13">
-        <v>8.822649077710793</v>
+        <v>3.571564784942183</v>
       </c>
       <c r="G13">
-        <v>9.285867886501876</v>
+        <v>3.148974891615353</v>
       </c>
       <c r="H13">
-        <v>4.459567182611863</v>
+        <v>2.02849725803037</v>
       </c>
       <c r="I13">
-        <v>0.686817867170582</v>
+        <v>0.4308881605544457</v>
       </c>
       <c r="J13">
-        <v>0.5050942797135463</v>
+        <v>0.2507833367248367</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.563130066385042</v>
+        <v>2.042030543333738</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9363690428267546</v>
+        <v>0.3338282482070554</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04859046671048972</v>
+        <v>0.1065430670494472</v>
       </c>
       <c r="E14">
-        <v>0.1425306446752579</v>
+        <v>0.1360941466472845</v>
       </c>
       <c r="F14">
-        <v>8.622923203844294</v>
+        <v>3.539935378736061</v>
       </c>
       <c r="G14">
-        <v>9.071960700315856</v>
+        <v>3.113702908760729</v>
       </c>
       <c r="H14">
-        <v>4.359660138630716</v>
+        <v>2.013249775342672</v>
       </c>
       <c r="I14">
-        <v>0.6782649886335221</v>
+        <v>0.4283746547068858</v>
       </c>
       <c r="J14">
-        <v>0.4939040121280271</v>
+        <v>0.2491326164057455</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.496219825738677</v>
+        <v>2.019908357050213</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9263855807039931</v>
+        <v>0.3305392456624645</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04834719252503028</v>
+        <v>0.1065223252554794</v>
       </c>
       <c r="E15">
-        <v>0.14086852308996</v>
+        <v>0.1359067491117649</v>
       </c>
       <c r="F15">
-        <v>8.501999999128628</v>
+        <v>3.520610273165971</v>
       </c>
       <c r="G15">
-        <v>8.9424415216439</v>
+        <v>3.092140582485115</v>
       </c>
       <c r="H15">
-        <v>4.299185188660545</v>
+        <v>2.003937769423828</v>
       </c>
       <c r="I15">
-        <v>0.6730320097669491</v>
+        <v>0.4268385096919118</v>
       </c>
       <c r="J15">
-        <v>0.4871307092546289</v>
+        <v>0.2481249124802929</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.455239622433339</v>
+        <v>2.006360570313319</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8691508517122486</v>
+        <v>0.3116732098857256</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04701842661003042</v>
+        <v>0.1064045211602469</v>
       </c>
       <c r="E16">
-        <v>0.1316259344029547</v>
+        <v>0.1348556618023871</v>
       </c>
       <c r="F16">
-        <v>7.828661966632097</v>
+        <v>3.410606892642278</v>
       </c>
       <c r="G16">
-        <v>8.221079382949597</v>
+        <v>2.969223366258007</v>
       </c>
       <c r="H16">
-        <v>3.962630935691038</v>
+        <v>1.950992589575719</v>
       </c>
       <c r="I16">
-        <v>0.6431340378037191</v>
+        <v>0.4180888088536463</v>
       </c>
       <c r="J16">
-        <v>0.4494413804276149</v>
+        <v>0.2424020215006948</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.220463849171125</v>
+        <v>1.928767661017872</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8340171836809702</v>
+        <v>0.3000838993125114</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04625389486522913</v>
+        <v>0.1063331807884911</v>
       </c>
       <c r="E17">
-        <v>0.126181007038948</v>
+        <v>0.1342311160739662</v>
       </c>
       <c r="F17">
-        <v>7.431107496256175</v>
+        <v>3.343776744307405</v>
       </c>
       <c r="G17">
-        <v>7.795020981322068</v>
+        <v>2.894387060466613</v>
       </c>
       <c r="H17">
-        <v>3.764077421579202</v>
+        <v>1.918881687400301</v>
       </c>
       <c r="I17">
-        <v>0.624872587289893</v>
+        <v>0.4127692216154841</v>
       </c>
       <c r="J17">
-        <v>0.4272116384723006</v>
+        <v>0.2389370388622893</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.076494888478635</v>
+        <v>1.881209144293678</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8138007528258413</v>
+        <v>0.2934125106850445</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04583009834074758</v>
+        <v>0.1062924826548013</v>
       </c>
       <c r="E18">
-        <v>0.1231224470740528</v>
+        <v>0.1338793036318329</v>
       </c>
       <c r="F18">
-        <v>7.207443111385089</v>
+        <v>3.305574844941731</v>
       </c>
       <c r="G18">
-        <v>7.55526257698682</v>
+        <v>2.851549089412629</v>
       </c>
       <c r="H18">
-        <v>3.652424255863139</v>
+        <v>1.900546521073124</v>
       </c>
       <c r="I18">
-        <v>0.6143983206426071</v>
+        <v>0.4097273953839675</v>
       </c>
       <c r="J18">
-        <v>0.414713353007869</v>
+        <v>0.2369607392022033</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.993709333444571</v>
+        <v>1.853871441568089</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8069543263252115</v>
+        <v>0.2911527646054139</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04568912425789939</v>
+        <v>0.1062787599065302</v>
       </c>
       <c r="E19">
-        <v>0.1220986372256867</v>
+        <v>0.1337614551878872</v>
       </c>
       <c r="F19">
-        <v>7.132512926873716</v>
+        <v>3.292680760349469</v>
       </c>
       <c r="G19">
-        <v>7.474930559262361</v>
+        <v>2.837079934219787</v>
       </c>
       <c r="H19">
-        <v>3.615027927829942</v>
+        <v>1.89436145048802</v>
       </c>
       <c r="I19">
-        <v>0.6108569212604564</v>
+        <v>0.4087005711172651</v>
       </c>
       <c r="J19">
-        <v>0.4105276656238601</v>
+        <v>0.2362944442791957</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.965683291769324</v>
+        <v>1.844618345498816</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8377580912796532</v>
+        <v>0.3013181776852036</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04633357616534894</v>
+        <v>0.1063407402842653</v>
       </c>
       <c r="E20">
-        <v>0.1267528533708884</v>
+        <v>0.1342968323355507</v>
       </c>
       <c r="F20">
-        <v>7.472895924786883</v>
+        <v>3.350866326720222</v>
       </c>
       <c r="G20">
-        <v>7.839811525199764</v>
+        <v>2.90233212842918</v>
       </c>
       <c r="H20">
-        <v>3.784942487022079</v>
+        <v>1.922286027038183</v>
       </c>
       <c r="I20">
-        <v>0.6268135205769454</v>
+        <v>0.4133336567285824</v>
       </c>
       <c r="J20">
-        <v>0.4295474305240248</v>
+        <v>0.2393041633429505</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.091818400229187</v>
+        <v>1.886270128092036</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9411559823937239</v>
+        <v>0.3354050867557703</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04870840090296191</v>
+        <v>0.1065530322609014</v>
       </c>
       <c r="E21">
-        <v>0.1433330898612937</v>
+        <v>0.136184413718567</v>
       </c>
       <c r="F21">
-        <v>8.681287426108241</v>
+        <v>3.549215510681506</v>
       </c>
       <c r="G21">
-        <v>9.134471070413042</v>
+        <v>3.124054210283646</v>
       </c>
       <c r="H21">
-        <v>4.388852308911623</v>
+        <v>2.017722587296021</v>
       </c>
       <c r="I21">
-        <v>0.6807759445216846</v>
+        <v>0.429112214418673</v>
       </c>
       <c r="J21">
-        <v>0.4971736723598639</v>
+        <v>0.249616761358638</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.515872099351498</v>
+        <v>2.026405625114307</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.008665481205924</v>
+        <v>0.3576291578725375</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05046740922653115</v>
+        <v>0.1066948957068323</v>
       </c>
       <c r="E22">
-        <v>0.155047938157697</v>
+        <v>0.1374848268051494</v>
       </c>
       <c r="F22">
-        <v>9.53239252690517</v>
+        <v>3.681024872415463</v>
       </c>
       <c r="G22">
-        <v>10.04586460440595</v>
+        <v>3.270868098814447</v>
       </c>
       <c r="H22">
-        <v>4.81481300855296</v>
+        <v>2.081323391753187</v>
       </c>
       <c r="I22">
-        <v>0.7163074138431114</v>
+        <v>0.4395793436413982</v>
       </c>
       <c r="J22">
-        <v>0.5448878574761835</v>
+        <v>0.2565087896800833</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.793206235152638</v>
+        <v>2.118115898853603</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9726400862101343</v>
+        <v>0.3457728835221303</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04950573319130491</v>
+        <v>0.1066188884862704</v>
       </c>
       <c r="E23">
-        <v>0.1487018517919942</v>
+        <v>0.1367846235793699</v>
       </c>
       <c r="F23">
-        <v>9.071539019827725</v>
+        <v>3.610473322205905</v>
       </c>
       <c r="G23">
-        <v>9.552403710438341</v>
+        <v>3.192332840114375</v>
       </c>
       <c r="H23">
-        <v>4.584105078277844</v>
+        <v>2.047264520717476</v>
       </c>
       <c r="I23">
-        <v>0.6973192642933412</v>
+        <v>0.4339788619097504</v>
       </c>
       <c r="J23">
-        <v>0.5190441050025782</v>
+        <v>0.2528162789516131</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.645170341327798</v>
+        <v>2.069158297353852</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8360668819179011</v>
+        <v>0.3007601869816199</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04629750383544007</v>
+        <v>0.10633732165204</v>
       </c>
       <c r="E24">
-        <v>0.126494100225031</v>
+        <v>0.1342670994488167</v>
       </c>
       <c r="F24">
-        <v>7.453988294254202</v>
+        <v>3.347660443095805</v>
       </c>
       <c r="G24">
-        <v>7.819545736806845</v>
+        <v>2.898739583346128</v>
       </c>
       <c r="H24">
-        <v>3.775501694334025</v>
+        <v>1.920746533548197</v>
       </c>
       <c r="I24">
-        <v>0.6259359484111684</v>
+        <v>0.4130784242512391</v>
       </c>
       <c r="J24">
-        <v>0.4284905502620688</v>
+        <v>0.2391381373017794</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.084890690002226</v>
+        <v>1.883982043575145</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6884222602583066</v>
+        <v>0.2519980490933733</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04343309283127539</v>
+        <v>0.1060463370010964</v>
       </c>
       <c r="E25">
-        <v>0.1052804358372335</v>
+        <v>0.1318343853988502</v>
       </c>
       <c r="F25">
-        <v>5.896092321674075</v>
+        <v>3.073198553213103</v>
       </c>
       <c r="G25">
-        <v>6.148476221074361</v>
+        <v>2.589881758271019</v>
       </c>
       <c r="H25">
-        <v>2.998635012376667</v>
+        <v>1.789387422476921</v>
       </c>
       <c r="I25">
-        <v>0.5500536194376693</v>
+        <v>0.3912191043998661</v>
       </c>
       <c r="J25">
-        <v>0.3415727246336644</v>
+        <v>0.2250191059075775</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.481366830697027</v>
+        <v>1.684892220676261</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2159311196965064</v>
+        <v>0.5793654039439957</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1058422808887993</v>
+        <v>0.04162306229650348</v>
       </c>
       <c r="E2">
-        <v>0.13028179933346</v>
+        <v>0.09120946875002289</v>
       </c>
       <c r="F2">
-        <v>2.878478165862106</v>
+        <v>4.850323898674958</v>
       </c>
       <c r="G2">
-        <v>2.368769996223534</v>
+        <v>5.024754028769962</v>
       </c>
       <c r="H2">
-        <v>1.696868061313182</v>
+        <v>2.478437217176406</v>
       </c>
       <c r="I2">
-        <v>0.3757315010511491</v>
+        <v>0.4951129138725179</v>
       </c>
       <c r="J2">
-        <v>0.2151472402880472</v>
+        <v>0.2834536328318507</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.538965158848526</v>
+        <v>3.037635430282705</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1913949238938244</v>
+        <v>0.5052132088299288</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1057099897463161</v>
+        <v>0.0405144823916288</v>
       </c>
       <c r="E3">
-        <v>0.129376248143025</v>
+        <v>0.08235840762005964</v>
       </c>
       <c r="F3">
-        <v>2.750918434283136</v>
+        <v>4.184349719911324</v>
       </c>
       <c r="G3">
-        <v>2.222640816841505</v>
+        <v>4.307863690085838</v>
       </c>
       <c r="H3">
-        <v>1.636692919714051</v>
+        <v>2.147840287561962</v>
       </c>
       <c r="I3">
-        <v>0.3656238581545637</v>
+        <v>0.4584487682843417</v>
       </c>
       <c r="J3">
-        <v>0.208773148833032</v>
+        <v>0.246570184388986</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.440536212657179</v>
+        <v>2.737299696658539</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1762869034274956</v>
+        <v>0.4595565776571533</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1056316089112226</v>
+        <v>0.03987585271815242</v>
       </c>
       <c r="E4">
-        <v>0.1288919000434596</v>
+        <v>0.077190716031037</v>
       </c>
       <c r="F4">
-        <v>2.674709327376632</v>
+        <v>3.791403568693568</v>
       </c>
       <c r="G4">
-        <v>2.13468666062019</v>
+        <v>3.88424278292473</v>
       </c>
       <c r="H4">
-        <v>1.600961959854857</v>
+        <v>1.953080656404723</v>
       </c>
       <c r="I4">
-        <v>0.3596127975951617</v>
+        <v>0.4362154386400974</v>
       </c>
       <c r="J4">
-        <v>0.205012059613054</v>
+        <v>0.2248672674739822</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.380350891855841</v>
+        <v>2.5530864410552</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.170120147310584</v>
+        <v>0.4409186727193486</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1056003683078792</v>
+        <v>0.03962423066539422</v>
       </c>
       <c r="E5">
-        <v>0.1287124574646867</v>
+        <v>0.0751430840504419</v>
       </c>
       <c r="F5">
-        <v>2.64417696227224</v>
+        <v>3.63465179650521</v>
       </c>
       <c r="G5">
-        <v>2.099280920985308</v>
+        <v>3.715094691874214</v>
       </c>
       <c r="H5">
-        <v>1.586703403558658</v>
+        <v>1.875460670430812</v>
       </c>
       <c r="I5">
-        <v>0.3572128864356259</v>
+        <v>0.4272251559504028</v>
       </c>
       <c r="J5">
-        <v>0.2035173224339673</v>
+        <v>0.2162241354803314</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.3558914054328</v>
+        <v>2.478069448651866</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1690955695415823</v>
+        <v>0.4378218885601228</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1055952226743999</v>
+        <v>0.03958291947764181</v>
       </c>
       <c r="E6">
-        <v>0.128683741779934</v>
+        <v>0.07480635882001607</v>
       </c>
       <c r="F6">
-        <v>2.639138474748648</v>
+        <v>3.608810373370773</v>
       </c>
       <c r="G6">
-        <v>2.093427924020915</v>
+        <v>3.687199986104361</v>
       </c>
       <c r="H6">
-        <v>1.584353915396832</v>
+        <v>1.862668850673401</v>
       </c>
       <c r="I6">
-        <v>0.3568173988915788</v>
+        <v>0.4257365520943779</v>
       </c>
       <c r="J6">
-        <v>0.2032714010193857</v>
+        <v>0.214800127545324</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.351834048475013</v>
+        <v>2.465616123913208</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1762037765289932</v>
+        <v>0.459305352421552</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1056311847747633</v>
+        <v>0.03987242665616986</v>
       </c>
       <c r="E7">
-        <v>0.1288894075201767</v>
+        <v>0.07716287591496851</v>
       </c>
       <c r="F7">
-        <v>2.674295448035082</v>
+        <v>3.789276660458171</v>
       </c>
       <c r="G7">
-        <v>2.134207411306051</v>
+        <v>3.881948326126377</v>
       </c>
       <c r="H7">
-        <v>1.600768445849013</v>
+        <v>1.952027168106923</v>
       </c>
       <c r="I7">
-        <v>0.3595802297553021</v>
+        <v>0.4360939092484273</v>
       </c>
       <c r="J7">
-        <v>0.2049917480354679</v>
+        <v>0.2247499335127969</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.380020748618364</v>
+        <v>2.552074523768539</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2074802657996884</v>
+        <v>0.5538236746774885</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1057960665953246</v>
+        <v>0.0412308075246095</v>
       </c>
       <c r="E8">
-        <v>0.129954637554043</v>
+        <v>0.08809645794670828</v>
       </c>
       <c r="F8">
-        <v>2.834052162487836</v>
+        <v>4.616966922952514</v>
       </c>
       <c r="G8">
-        <v>2.318011996819791</v>
+        <v>4.7736903684401</v>
       </c>
       <c r="H8">
-        <v>1.675864740954125</v>
+        <v>2.362529046424299</v>
       </c>
       <c r="I8">
-        <v>0.3722062484302811</v>
+        <v>0.4824132112798409</v>
       </c>
       <c r="J8">
-        <v>0.212917504022812</v>
+        <v>0.2705166943903379</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.504976964631908</v>
+        <v>2.934040714684301</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2684501888316504</v>
+        <v>0.7382065226404109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1061427228871796</v>
+        <v>0.04434027670219542</v>
       </c>
       <c r="E9">
-        <v>0.1326164825695173</v>
+        <v>0.1121412317307851</v>
       </c>
       <c r="F9">
-        <v>3.164481609023056</v>
+        <v>6.40188369022556</v>
       </c>
       <c r="G9">
-        <v>2.692914156986546</v>
+        <v>6.691324449569834</v>
       </c>
       <c r="H9">
-        <v>1.832970800449971</v>
+        <v>3.250625457680655</v>
       </c>
       <c r="I9">
-        <v>0.3984893586954854</v>
+        <v>0.5754683679897212</v>
       </c>
       <c r="J9">
-        <v>0.2296922894002904</v>
+        <v>0.3697532145306752</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.751860150726543</v>
+        <v>3.68456202206653</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3129948669854343</v>
+        <v>0.8731587267200211</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.106412707435446</v>
+        <v>0.0471080069883012</v>
       </c>
       <c r="E10">
-        <v>0.1349279334950673</v>
+        <v>0.1322578153812088</v>
       </c>
       <c r="F10">
-        <v>3.418265018242977</v>
+        <v>7.874751479112405</v>
       </c>
       <c r="G10">
-        <v>2.977790851650184</v>
+        <v>8.270465649153778</v>
       </c>
       <c r="H10">
-        <v>1.954674957977772</v>
+        <v>3.985657395166754</v>
       </c>
       <c r="I10">
-        <v>0.4186982167615696</v>
+        <v>0.6452217692005178</v>
       </c>
       <c r="J10">
-        <v>0.2427996710749767</v>
+        <v>0.4520196799239073</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.934196595620278</v>
+        <v>4.236894622658639</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3331993617556179</v>
+        <v>0.9344599874919197</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.106539096441006</v>
+        <v>0.04854366836573476</v>
       </c>
       <c r="E11">
-        <v>0.1360582219594733</v>
+        <v>0.1422116209382551</v>
       </c>
       <c r="F11">
-        <v>3.536236937461979</v>
+        <v>8.599716899595876</v>
       </c>
       <c r="G11">
-        <v>3.10957700108986</v>
+        <v>9.047105349505955</v>
       </c>
       <c r="H11">
-        <v>2.011467405619328</v>
+        <v>4.348053639597367</v>
       </c>
       <c r="I11">
-        <v>0.4280806917633271</v>
+        <v>0.6772639329326395</v>
       </c>
       <c r="J11">
-        <v>0.2489397106595561</v>
+        <v>0.4926040446385542</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.01731744366225</v>
+        <v>4.488382904391386</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3408412057246153</v>
+        <v>0.9576618370862207</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1065874905544781</v>
+        <v>0.0491216287925571</v>
       </c>
       <c r="E12">
-        <v>0.1364976832432454</v>
+        <v>0.1461277547264288</v>
       </c>
       <c r="F12">
-        <v>3.581282987014646</v>
+        <v>8.884478073854751</v>
       </c>
       <c r="G12">
-        <v>3.15980762891769</v>
+        <v>9.352083064803594</v>
       </c>
       <c r="H12">
-        <v>2.033183669984112</v>
+        <v>4.490500855715311</v>
       </c>
       <c r="I12">
-        <v>0.4316602591565868</v>
+        <v>0.6894428311920535</v>
       </c>
       <c r="J12">
-        <v>0.2512908683668513</v>
+        <v>0.5085591740632651</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.04881500450972</v>
+        <v>4.583648715501909</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3391958157679369</v>
+        <v>0.9526653991389935</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1065770439752107</v>
+        <v>0.04899544965012659</v>
       </c>
       <c r="E13">
-        <v>0.1364025264829394</v>
+        <v>0.1452772041483392</v>
       </c>
       <c r="F13">
-        <v>3.571564784942183</v>
+        <v>8.822649077710849</v>
       </c>
       <c r="G13">
-        <v>3.148974891615353</v>
+        <v>9.285867886501819</v>
       </c>
       <c r="H13">
-        <v>2.02849725803037</v>
+        <v>4.459567182611977</v>
       </c>
       <c r="I13">
-        <v>0.4308881605544457</v>
+        <v>0.6868178671705465</v>
       </c>
       <c r="J13">
-        <v>0.2507833367248367</v>
+        <v>0.5050942797134894</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.042030543333738</v>
+        <v>4.563130066384929</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3338282482070554</v>
+        <v>0.9363690428265841</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1065430670494472</v>
+        <v>0.04859046671032807</v>
       </c>
       <c r="E14">
-        <v>0.1360941466472845</v>
+        <v>0.1425306446752046</v>
       </c>
       <c r="F14">
-        <v>3.539935378736061</v>
+        <v>8.622923203844294</v>
       </c>
       <c r="G14">
-        <v>3.113702908760729</v>
+        <v>9.071960700315742</v>
       </c>
       <c r="H14">
-        <v>2.013249775342672</v>
+        <v>4.359660138630716</v>
       </c>
       <c r="I14">
-        <v>0.4283746547068858</v>
+        <v>0.6782649886334937</v>
       </c>
       <c r="J14">
-        <v>0.2491326164057455</v>
+        <v>0.4939040121281408</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.019908357050213</v>
+        <v>4.496219825738706</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3305392456624645</v>
+        <v>0.9263855807037658</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1065223252554794</v>
+        <v>0.04834719252502317</v>
       </c>
       <c r="E15">
-        <v>0.1359067491117649</v>
+        <v>0.1408685230899813</v>
       </c>
       <c r="F15">
-        <v>3.520610273165971</v>
+        <v>8.501999999128657</v>
       </c>
       <c r="G15">
-        <v>3.092140582485115</v>
+        <v>8.942441521644128</v>
       </c>
       <c r="H15">
-        <v>2.003937769423828</v>
+        <v>4.299185188660431</v>
       </c>
       <c r="I15">
-        <v>0.4268385096919118</v>
+        <v>0.6730320097669562</v>
       </c>
       <c r="J15">
-        <v>0.2481249124802929</v>
+        <v>0.4871307092546147</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.006360570313319</v>
+        <v>4.455239622433481</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3116732098857256</v>
+        <v>0.8691508517119928</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1064045211602469</v>
+        <v>0.04701842660999844</v>
       </c>
       <c r="E16">
-        <v>0.1348556618023871</v>
+        <v>0.1316259344029547</v>
       </c>
       <c r="F16">
-        <v>3.410606892642278</v>
+        <v>7.828661966632154</v>
       </c>
       <c r="G16">
-        <v>2.969223366258007</v>
+        <v>8.221079382949711</v>
       </c>
       <c r="H16">
-        <v>1.950992589575719</v>
+        <v>3.962630935691038</v>
       </c>
       <c r="I16">
-        <v>0.4180888088536463</v>
+        <v>0.6431340378037191</v>
       </c>
       <c r="J16">
-        <v>0.2424020215006948</v>
+        <v>0.4494413804276149</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.928767661017872</v>
+        <v>4.220463849171011</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3000838993125114</v>
+        <v>0.8340171836813965</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1063331807884911</v>
+        <v>0.04625389486504616</v>
       </c>
       <c r="E17">
-        <v>0.1342311160739662</v>
+        <v>0.1261810070389657</v>
       </c>
       <c r="F17">
-        <v>3.343776744307405</v>
+        <v>7.431107496256146</v>
       </c>
       <c r="G17">
-        <v>2.894387060466613</v>
+        <v>7.795020981322068</v>
       </c>
       <c r="H17">
-        <v>1.918881687400301</v>
+        <v>3.764077421579202</v>
       </c>
       <c r="I17">
-        <v>0.4127692216154841</v>
+        <v>0.6248725872898859</v>
       </c>
       <c r="J17">
-        <v>0.2389370388622893</v>
+        <v>0.4272116384724001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.881209144293678</v>
+        <v>4.076494888478607</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2934125106850445</v>
+        <v>0.8138007528256139</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1062924826548013</v>
+        <v>0.04583009834112595</v>
       </c>
       <c r="E18">
-        <v>0.1338793036318329</v>
+        <v>0.123122447074028</v>
       </c>
       <c r="F18">
-        <v>3.305574844941731</v>
+        <v>7.207443111385118</v>
       </c>
       <c r="G18">
-        <v>2.851549089412629</v>
+        <v>7.555262576986877</v>
       </c>
       <c r="H18">
-        <v>1.900546521073124</v>
+        <v>3.652424255863139</v>
       </c>
       <c r="I18">
-        <v>0.4097273953839675</v>
+        <v>0.6143983206426071</v>
       </c>
       <c r="J18">
-        <v>0.2369607392022033</v>
+        <v>0.4147133530076559</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.853871441568089</v>
+        <v>3.993709333444542</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2911527646054139</v>
+        <v>0.8069543263252115</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1062787599065302</v>
+        <v>0.04568912425788518</v>
       </c>
       <c r="E19">
-        <v>0.1337614551878872</v>
+        <v>0.1220986372256547</v>
       </c>
       <c r="F19">
-        <v>3.292680760349469</v>
+        <v>7.132512926873773</v>
       </c>
       <c r="G19">
-        <v>2.837079934219787</v>
+        <v>7.474930559262361</v>
       </c>
       <c r="H19">
-        <v>1.89436145048802</v>
+        <v>3.615027927829999</v>
       </c>
       <c r="I19">
-        <v>0.4087005711172651</v>
+        <v>0.6108569212604564</v>
       </c>
       <c r="J19">
-        <v>0.2362944442791957</v>
+        <v>0.4105276656239312</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.844618345498816</v>
+        <v>3.965683291769437</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3013181776852036</v>
+        <v>0.8377580912796532</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1063407402842653</v>
+        <v>0.04633357616512157</v>
       </c>
       <c r="E20">
-        <v>0.1342968323355507</v>
+        <v>0.1267528533708777</v>
       </c>
       <c r="F20">
-        <v>3.350866326720222</v>
+        <v>7.47289592478694</v>
       </c>
       <c r="G20">
-        <v>2.90233212842918</v>
+        <v>7.839811525199764</v>
       </c>
       <c r="H20">
-        <v>1.922286027038183</v>
+        <v>3.784942487022079</v>
       </c>
       <c r="I20">
-        <v>0.4133336567285824</v>
+        <v>0.6268135205769454</v>
       </c>
       <c r="J20">
-        <v>0.2393041633429505</v>
+        <v>0.4295474305240958</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.886270128092036</v>
+        <v>4.091818400229073</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3354050867557703</v>
+        <v>0.9411559823934965</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1065530322609014</v>
+        <v>0.04870840090295125</v>
       </c>
       <c r="E21">
-        <v>0.136184413718567</v>
+        <v>0.1433330898612972</v>
       </c>
       <c r="F21">
-        <v>3.549215510681506</v>
+        <v>8.681287426108241</v>
       </c>
       <c r="G21">
-        <v>3.124054210283646</v>
+        <v>9.134471070413156</v>
       </c>
       <c r="H21">
-        <v>2.017722587296021</v>
+        <v>4.388852308911567</v>
       </c>
       <c r="I21">
-        <v>0.429112214418673</v>
+        <v>0.6807759445216632</v>
       </c>
       <c r="J21">
-        <v>0.249616761358638</v>
+        <v>0.497173672360077</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.026405625114307</v>
+        <v>4.515872099351498</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3576291578725375</v>
+        <v>1.008665481205838</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1066948957068323</v>
+        <v>0.05046740922690596</v>
       </c>
       <c r="E22">
-        <v>0.1374848268051494</v>
+        <v>0.1550479381577219</v>
       </c>
       <c r="F22">
-        <v>3.681024872415463</v>
+        <v>9.532392526905255</v>
       </c>
       <c r="G22">
-        <v>3.270868098814447</v>
+        <v>10.04586460440589</v>
       </c>
       <c r="H22">
-        <v>2.081323391753187</v>
+        <v>4.814813008552903</v>
       </c>
       <c r="I22">
-        <v>0.4395793436413982</v>
+        <v>0.71630741384309</v>
       </c>
       <c r="J22">
-        <v>0.2565087896800833</v>
+        <v>0.5448878574762688</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.118115898853603</v>
+        <v>4.793206235152695</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3457728835221303</v>
+        <v>0.9726400862101627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1066188884862704</v>
+        <v>0.04950573319130136</v>
       </c>
       <c r="E23">
-        <v>0.1367846235793699</v>
+        <v>0.1487018517919658</v>
       </c>
       <c r="F23">
-        <v>3.610473322205905</v>
+        <v>9.071539019827696</v>
       </c>
       <c r="G23">
-        <v>3.192332840114375</v>
+        <v>9.552403710438341</v>
       </c>
       <c r="H23">
-        <v>2.047264520717476</v>
+        <v>4.584105078277844</v>
       </c>
       <c r="I23">
-        <v>0.4339788619097504</v>
+        <v>0.6973192642933412</v>
       </c>
       <c r="J23">
-        <v>0.2528162789516131</v>
+        <v>0.519044105002564</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.069158297353852</v>
+        <v>4.645170341327685</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3007601869816199</v>
+        <v>0.8360668819179011</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.10633732165204</v>
+        <v>0.04629750383559461</v>
       </c>
       <c r="E24">
-        <v>0.1342670994488167</v>
+        <v>0.1264941002250239</v>
       </c>
       <c r="F24">
-        <v>3.347660443095805</v>
+        <v>7.453988294254287</v>
       </c>
       <c r="G24">
-        <v>2.898739583346128</v>
+        <v>7.819545736806901</v>
       </c>
       <c r="H24">
-        <v>1.920746533548197</v>
+        <v>3.775501694333968</v>
       </c>
       <c r="I24">
-        <v>0.4130784242512391</v>
+        <v>0.62593594841114</v>
       </c>
       <c r="J24">
-        <v>0.2391381373017794</v>
+        <v>0.4284905502621399</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.883982043575145</v>
+        <v>4.084890690002339</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2519980490933733</v>
+        <v>0.6884222602580223</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1060463370010964</v>
+        <v>0.0434330928312221</v>
       </c>
       <c r="E25">
-        <v>0.1318343853988502</v>
+        <v>0.1052804358372583</v>
       </c>
       <c r="F25">
-        <v>3.073198553213103</v>
+        <v>5.896092321674075</v>
       </c>
       <c r="G25">
-        <v>2.589881758271019</v>
+        <v>6.148476221074304</v>
       </c>
       <c r="H25">
-        <v>1.789387422476921</v>
+        <v>2.998635012376724</v>
       </c>
       <c r="I25">
-        <v>0.3912191043998661</v>
+        <v>0.5500536194376338</v>
       </c>
       <c r="J25">
-        <v>0.2250191059075775</v>
+        <v>0.3415727246336644</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.684892220676261</v>
+        <v>3.481366830697112</v>
       </c>
       <c r="O25">
         <v>0</v>
